--- a/Assets/Resources/WordStorm Database.xlsx
+++ b/Assets/Resources/WordStorm Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SIT @ DIGIPEN\YEAR 2 SEM 1\GAM200\M1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teope\OneDrive\Documents\GitHub\WordStorm\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50109056-84DE-4F8E-ACC0-781A785665BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7269AD44-6A1E-4F50-9E1B-B1ABCBFBB581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1880" windowWidth="15480" windowHeight="10860" activeTab="1" xr2:uid="{F497D8AE-0808-47B5-8841-B6B980A3A212}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F497D8AE-0808-47B5-8841-B6B980A3A212}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyWave" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Wave no.</t>
   </si>
@@ -66,27 +66,12 @@
     <t>SeparationForce</t>
   </si>
   <si>
-    <t>EnemyPrefix</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
     <t>EnemyNo.</t>
   </si>
   <si>
-    <t>pro</t>
-  </si>
-  <si>
-    <t>com</t>
-  </si>
-  <si>
-    <t>dis</t>
-  </si>
-  <si>
-    <t>anti</t>
-  </si>
-  <si>
     <t>EnemyId</t>
   </si>
   <si>
@@ -99,9 +84,6 @@
     <t>Boss</t>
   </si>
   <si>
-    <t>pro,com,dis,anti</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -109,9 +91,6 @@
   </si>
   <si>
     <t>Boss that can spawn various types of enemies. Kill it in the time limit to survive.</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -147,9 +126,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -491,38 +469,38 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
-    <col min="3" max="4" width="14.81640625" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>101102103</v>
       </c>
       <c r="C2">
@@ -535,11 +513,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>101102103104</v>
       </c>
       <c r="C3">
@@ -552,11 +530,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>101102103104</v>
       </c>
       <c r="C4">
@@ -569,18 +547,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>105</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
+      <c r="D5">
+        <v>6</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -593,55 +571,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1019CB6-AB72-4753-92A5-6BAAFCB539E5}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" customWidth="1"/>
-    <col min="9" max="9" width="23.1796875" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -649,13 +623,13 @@
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -664,16 +638,13 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I2">
-        <v>0.8</v>
-      </c>
-      <c r="J2">
         <v>2.1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -681,13 +652,13 @@
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -696,16 +667,13 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I3">
-        <v>0.8</v>
-      </c>
-      <c r="J3">
         <v>2.1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -713,13 +681,13 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -728,16 +696,13 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I4">
-        <v>0.8</v>
-      </c>
-      <c r="J4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -745,60 +710,54 @@
         <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I5">
-        <v>0.8</v>
-      </c>
-      <c r="J5">
         <v>2.1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>105</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
       </c>
       <c r="F6">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
